--- a/biology/Médecine/Bernard_Muldworf/Bernard_Muldworf.xlsx
+++ b/biology/Médecine/Bernard_Muldworf/Bernard_Muldworf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bernard Muldworf, né le 14 octobre 1923 à Radzyń Podlaski (Pologne) et mort le 6 avril 2019 à Rueil-Malmaison, est un psychiatre et psychanalyste français d'origine polonaise. Il est résistant durant la Seconde Guerre mondiale.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,10 +551,12 @@
           <t>Engagement et prise de position</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bernard Muldworf est membre du Parti communiste français de 1946 à 1978[1].
-Il est l'un des 70 signataires de la pétition concernant la majorité sexuelle parue dans Le Monde le 26 janvier 1977. Il s'exprime à ce propos en 2001, indiquant qu'il avait « signé la pétition par solidarité avec le mouvement, non par adhésion aux idées », « dans un contexte précis »[2], et qu'il ne la signerait « certainement pas [aujourd'hui] ».
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bernard Muldworf est membre du Parti communiste français de 1946 à 1978.
+Il est l'un des 70 signataires de la pétition concernant la majorité sexuelle parue dans Le Monde le 26 janvier 1977. Il s'exprime à ce propos en 2001, indiquant qu'il avait « signé la pétition par solidarité avec le mouvement, non par adhésion aux idées », « dans un contexte précis », et qu'il ne la signerait « certainement pas [aujourd'hui] ».
 </t>
         </is>
       </c>
@@ -569,7 +585,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L’Adultère, Casterman, 1970
 Sexualité et féminité, Éditions sociales, 1970
